--- a/data/output/FV2410_FV2404/UTILMD/55185.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55185.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6596" uniqueCount="497">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6617" uniqueCount="497">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1660,6 +1660,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U280" totalsRowShown="0">
+  <autoFilter ref="A1:U280"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1949,7 +1979,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15784,5 +15817,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55185.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55185.xlsx
@@ -2904,7 +2904,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5010,7 +5010,7 @@
         <v>458</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5234,7 +5234,7 @@
         <v>460</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5458,7 +5458,7 @@
         <v>461</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5790,7 +5790,7 @@
         <v>463</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5952,7 +5952,7 @@
         <v>464</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6160,7 +6160,7 @@
         <v>466</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6568,7 +6568,7 @@
         <v>467</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6876,7 +6876,7 @@
         <v>469</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7366,7 +7366,7 @@
         <v>473</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -7628,7 +7628,7 @@
         <v>463</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7890,7 +7890,7 @@
         <v>463</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -8040,7 +8040,7 @@
         <v>475</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -8206,7 +8206,7 @@
         <v>477</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8372,7 +8372,7 @@
         <v>475</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -8534,7 +8534,7 @@
         <v>479</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8858,7 +8858,7 @@
         <v>463</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9062,7 +9062,7 @@
         <v>480</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -9266,7 +9266,7 @@
         <v>463</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -9470,7 +9470,7 @@
         <v>481</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -9782,7 +9782,7 @@
         <v>463</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -10202,7 +10202,7 @@
         <v>482</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -10418,7 +10418,7 @@
         <v>463</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -10680,7 +10680,7 @@
         <v>463</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10888,7 +10888,7 @@
         <v>484</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -11100,7 +11100,7 @@
         <v>485</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -11248,7 +11248,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -11412,7 +11412,7 @@
         <v>459</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -11632,7 +11632,7 @@
         <v>463</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11786,7 +11786,7 @@
         <v>463</v>
       </c>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -11890,7 +11890,7 @@
         <v>463</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -12044,7 +12044,7 @@
         <v>459</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -12202,7 +12202,7 @@
         <v>487</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12510,7 +12510,7 @@
         <v>488</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12776,7 +12776,7 @@
         <v>463</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -12926,7 +12926,7 @@
         <v>459</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -13084,7 +13084,7 @@
         <v>463</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -13288,7 +13288,7 @@
         <v>463</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -13550,7 +13550,7 @@
         <v>490</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13698,7 +13698,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -13862,7 +13862,7 @@
         <v>459</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -14082,7 +14082,7 @@
         <v>463</v>
       </c>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -14236,7 +14236,7 @@
         <v>459</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14340,7 +14340,7 @@
         <v>463</v>
       </c>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -14494,7 +14494,7 @@
         <v>459</v>
       </c>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -14652,7 +14652,7 @@
         <v>492</v>
       </c>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -14960,7 +14960,7 @@
         <v>463</v>
       </c>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -15388,7 +15388,7 @@
         <v>495</v>
       </c>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15696,7 +15696,7 @@
         <v>463</v>
       </c>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -15946,7 +15946,7 @@
         <v>463</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -16370,7 +16370,7 @@
         <v>463</v>
       </c>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -16798,7 +16798,7 @@
         <v>497</v>
       </c>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -16946,7 +16946,7 @@
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="4"/>
-      <c r="M270" s="2" t="s">
+      <c r="M270" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N270" s="2" t="s">
@@ -17106,7 +17106,7 @@
         <v>463</v>
       </c>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N278" s="2"/>
